--- a/out/production/GoBangMustWin/resources/黑棋先手必胜走法.xlsx
+++ b/out/production/GoBangMustWin/resources/黑棋先手必胜走法.xlsx
@@ -1,30 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\程序项目\IDEA\GoBangMustWin\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409658A9-99EE-4103-8658-41C047E2B9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D99E7817-B9E8-4207-BB13-485E8399BEA1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="1956" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="8964" windowWidth="17280" xWindow="1656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2304"/>
   </bookViews>
   <sheets>
-    <sheet name="数据标注" sheetId="1" r:id="rId1"/>
+    <sheet name="数据标注" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+  <si>
+    <t>H8:定式</t>
+  </si>
+  <si>
+    <t>I9:定式</t>
+  </si>
+  <si>
+    <t>I7:定式</t>
+  </si>
+  <si>
+    <t>G9:定式</t>
+  </si>
+  <si>
+    <t>J7:定式</t>
+  </si>
+  <si>
+    <t>G8:定式</t>
+  </si>
+  <si>
+    <t>J9:定式</t>
+  </si>
+  <si>
+    <t>G7:活三</t>
+  </si>
+  <si>
+    <t>G10:活三</t>
+  </si>
+  <si>
+    <t>J8:活三</t>
+  </si>
+  <si>
+    <t>K7:活三</t>
+  </si>
+  <si>
+    <t>L7:活三</t>
+  </si>
+  <si>
+    <t>K6:活三</t>
+  </si>
+  <si>
+    <t>K8:活三</t>
+  </si>
+  <si>
+    <t>J6:活三</t>
+  </si>
+  <si>
+    <t>I8:活三</t>
+  </si>
+  <si>
+    <t>M6:活三</t>
+  </si>
+  <si>
+    <t>L8:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>M8:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>L6:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>K5:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>L4:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>L5:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>M4:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>K4:必胜手</t>
+  </si>
+  <si>
+    <t>K7:必胜手</t>
+  </si>
+  <si>
+    <t>G10:定式</t>
+  </si>
+  <si>
+    <t>J8:定式</t>
+  </si>
+  <si>
+    <t>L7:定式</t>
+  </si>
+  <si>
+    <t>K6:定式</t>
+  </si>
+  <si>
+    <t>K8:定式</t>
+  </si>
+  <si>
+    <t>J6:定式</t>
+  </si>
+  <si>
+    <t>I8:定式</t>
+  </si>
+  <si>
+    <t>L8:冲四</t>
+  </si>
+  <si>
+    <t>M8:定式</t>
+  </si>
+  <si>
+    <t>L6:活三</t>
+  </si>
+  <si>
+    <t>K5:冲四</t>
+  </si>
+  <si>
+    <t>L4:冲四</t>
+  </si>
+  <si>
+    <t>L5:定式</t>
+  </si>
+  <si>
+    <t>M5:定式</t>
+  </si>
+  <si>
+    <t>K4:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>K3:活三</t>
+  </si>
+  <si>
+    <t>M4:冲四</t>
+  </si>
+  <si>
+    <t>N3:必胜手</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,20 +193,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -89,10 +223,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -127,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -179,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -290,21 +424,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -321,7 +455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -373,24 +507,370 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M1"/>
+      <selection activeCell="H7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>